--- a/frontend/KTPM_PHU/Result/ResultSearchQuestionCart.xlsx
+++ b/frontend/KTPM_PHU/Result/ResultSearchQuestionCart.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,8 +34,12 @@
       <b val="1"/>
       <color rgb="00006100"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="009C0006"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -90,6 +100,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,9 +582,9 @@
           <t>Vui lòng đăng nhập trước khi đặt câu hỏi về sản phẩm</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -596,9 +609,9 @@
           <t>Đã đặt câu hỏi thành công</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -615,9 +628,9 @@
           <t>Vui lòng đăng nhập trước khi mua hoặc thêm sản phẩm vào giỏ hàng</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -642,9 +655,9 @@
           <t>ống nghe</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
